--- a/toeic_words.xlsx
+++ b/toeic_words.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazuk\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazuk\Documents\pythonapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F1F7F6-E1E7-4D40-8DF3-49A43B971DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA86F53-AB27-4D0B-AD89-15AFDCE9643B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="3578" windowWidth="11115" windowHeight="8190" xr2:uid="{433AE29F-6F03-48A1-B11A-F741F728E8FA}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{433AE29F-6F03-48A1-B11A-F741F728E8FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
   <si>
     <t>Word</t>
     <phoneticPr fontId="1"/>
@@ -169,6 +169,826 @@
       <t>ミリョクテキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>encouraging</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>励みになる</t>
+    <rPh sb="0" eb="1">
+      <t>ハゲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dwelling</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jeopardize</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>paramount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aggravate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>champion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>articulate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>discerning</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住居</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を危険にさらす</t>
+    <rPh sb="2" eb="4">
+      <t>キケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最重要の、最高の</t>
+    <rPh sb="0" eb="3">
+      <t>サイジュウヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～を悪化させる</t>
+    <rPh sb="2" eb="4">
+      <t>アッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支援者、支持者</t>
+    <rPh sb="0" eb="3">
+      <t>シエンシャ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>シジシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～をはっきり話す</t>
+    <rPh sb="6" eb="7">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鑑識眼のある</t>
+    <rPh sb="0" eb="3">
+      <t>カンシキガン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adequate</t>
+  </si>
+  <si>
+    <t>charitable</t>
+  </si>
+  <si>
+    <t>endeavor</t>
+  </si>
+  <si>
+    <t>phenomenal</t>
+  </si>
+  <si>
+    <t>compulsory</t>
+  </si>
+  <si>
+    <t>indispensable</t>
+  </si>
+  <si>
+    <t>eradicate</t>
+  </si>
+  <si>
+    <t>formidable</t>
+  </si>
+  <si>
+    <t>十分な</t>
+  </si>
+  <si>
+    <t>慈善的な</t>
+  </si>
+  <si>
+    <t>努力</t>
+  </si>
+  <si>
+    <t>驚異的な</t>
+  </si>
+  <si>
+    <t>義務</t>
+  </si>
+  <si>
+    <t>不可欠な</t>
+  </si>
+  <si>
+    <t>根絶する</t>
+  </si>
+  <si>
+    <t>手強い</t>
+  </si>
+  <si>
+    <t>abundant</t>
+  </si>
+  <si>
+    <t>豊富な</t>
+  </si>
+  <si>
+    <t>delegation</t>
+  </si>
+  <si>
+    <t>委任、代表団</t>
+  </si>
+  <si>
+    <t>instrumental</t>
+  </si>
+  <si>
+    <t>役に立つ</t>
+  </si>
+  <si>
+    <t>exceedingly</t>
+  </si>
+  <si>
+    <t>極めて</t>
+  </si>
+  <si>
+    <t>noteworthy</t>
+  </si>
+  <si>
+    <t>注目に値する</t>
+  </si>
+  <si>
+    <t>splendid</t>
+  </si>
+  <si>
+    <t>素晴らしい</t>
+  </si>
+  <si>
+    <t>contributor</t>
+  </si>
+  <si>
+    <t>寄稿者</t>
+  </si>
+  <si>
+    <t>lingering</t>
+  </si>
+  <si>
+    <t>長引く</t>
+  </si>
+  <si>
+    <t>contemplate</t>
+  </si>
+  <si>
+    <t>熟考する</t>
+  </si>
+  <si>
+    <t>indoctrinate</t>
+  </si>
+  <si>
+    <t>教え込む</t>
+  </si>
+  <si>
+    <t>bothersome</t>
+  </si>
+  <si>
+    <t>面倒な</t>
+  </si>
+  <si>
+    <t>flagship</t>
+  </si>
+  <si>
+    <t>旗艦</t>
+  </si>
+  <si>
+    <t>stipulate</t>
+  </si>
+  <si>
+    <t>を明記する、規定する</t>
+  </si>
+  <si>
+    <t>deem</t>
+  </si>
+  <si>
+    <t>みなす</t>
+  </si>
+  <si>
+    <t>enlightening</t>
+  </si>
+  <si>
+    <t>啓発的な</t>
+  </si>
+  <si>
+    <t>abbreviate</t>
+  </si>
+  <si>
+    <t>省略する</t>
+  </si>
+  <si>
+    <t>demonstrably</t>
+  </si>
+  <si>
+    <t>明らかに</t>
+  </si>
+  <si>
+    <t>acclaimed</t>
+  </si>
+  <si>
+    <t>絶賛された</t>
+  </si>
+  <si>
+    <t>expedite</t>
+  </si>
+  <si>
+    <t>促進する</t>
+  </si>
+  <si>
+    <t>hypothesis</t>
+  </si>
+  <si>
+    <t>仮説</t>
+  </si>
+  <si>
+    <t>conglomerate</t>
+  </si>
+  <si>
+    <t>複合企業体</t>
+  </si>
+  <si>
+    <t>encrypt</t>
+  </si>
+  <si>
+    <t>暗号化する</t>
+  </si>
+  <si>
+    <t>plummet</t>
+  </si>
+  <si>
+    <t>急落</t>
+  </si>
+  <si>
+    <t>abruptly</t>
+  </si>
+  <si>
+    <t>突然</t>
+  </si>
+  <si>
+    <t>inappropriate</t>
+  </si>
+  <si>
+    <t>不適切</t>
+  </si>
+  <si>
+    <t>emphatically</t>
+  </si>
+  <si>
+    <t>強調して</t>
+  </si>
+  <si>
+    <t>intricate</t>
+  </si>
+  <si>
+    <t>複雑な</t>
+  </si>
+  <si>
+    <t>considerate</t>
+  </si>
+  <si>
+    <t>思いやりのある</t>
+  </si>
+  <si>
+    <t>exponentially</t>
+  </si>
+  <si>
+    <t>指数関数的に</t>
+  </si>
+  <si>
+    <t>apperance</t>
+  </si>
+  <si>
+    <t>出演</t>
+  </si>
+  <si>
+    <t>classified</t>
+  </si>
+  <si>
+    <t>機密の</t>
+  </si>
+  <si>
+    <t>illuminate</t>
+  </si>
+  <si>
+    <t>照らす</t>
+  </si>
+  <si>
+    <t>resumption</t>
+  </si>
+  <si>
+    <t>再開</t>
+  </si>
+  <si>
+    <t>demenor</t>
+  </si>
+  <si>
+    <t>態度</t>
+  </si>
+  <si>
+    <t>intriguing</t>
+  </si>
+  <si>
+    <t>興味深い</t>
+  </si>
+  <si>
+    <t>inscribe</t>
+  </si>
+  <si>
+    <t>刻む</t>
+  </si>
+  <si>
+    <t>spontaneously</t>
+  </si>
+  <si>
+    <t>自発的に</t>
+  </si>
+  <si>
+    <t>compensation</t>
+  </si>
+  <si>
+    <t>補償</t>
+  </si>
+  <si>
+    <t>feasible</t>
+  </si>
+  <si>
+    <t>実現可能</t>
+  </si>
+  <si>
+    <t>introductory</t>
+  </si>
+  <si>
+    <t>入門</t>
+  </si>
+  <si>
+    <t>accredited</t>
+  </si>
+  <si>
+    <t>認定された</t>
+  </si>
+  <si>
+    <t>lump-sum</t>
+  </si>
+  <si>
+    <t>一括払いの</t>
+  </si>
+  <si>
+    <t>summarize</t>
+  </si>
+  <si>
+    <t>要約する</t>
+  </si>
+  <si>
+    <t>culminate</t>
+  </si>
+  <si>
+    <t>最高潮に達する</t>
+  </si>
+  <si>
+    <t>mandate</t>
+  </si>
+  <si>
+    <t>義務づける</t>
+  </si>
+  <si>
+    <t>impeccable</t>
+  </si>
+  <si>
+    <t>完璧</t>
+  </si>
+  <si>
+    <t>procrastinate</t>
+  </si>
+  <si>
+    <t>先延ばしにする</t>
+  </si>
+  <si>
+    <t>cuirculation</t>
+  </si>
+  <si>
+    <t>循環</t>
+  </si>
+  <si>
+    <t>imperative</t>
+  </si>
+  <si>
+    <t>命令的</t>
+  </si>
+  <si>
+    <t>streamline</t>
+  </si>
+  <si>
+    <t>合理化</t>
+  </si>
+  <si>
+    <t>organized</t>
+  </si>
+  <si>
+    <t>整頓された</t>
+  </si>
+  <si>
+    <t>problematic</t>
+  </si>
+  <si>
+    <t>問題がある</t>
+  </si>
+  <si>
+    <t>swiftly</t>
+  </si>
+  <si>
+    <t>迅速に</t>
+  </si>
+  <si>
+    <t>adjourn</t>
+  </si>
+  <si>
+    <t>休会する</t>
+  </si>
+  <si>
+    <t>meticulous</t>
+  </si>
+  <si>
+    <t>細心の</t>
+  </si>
+  <si>
+    <t>exorbitant</t>
+  </si>
+  <si>
+    <t>法外な</t>
+  </si>
+  <si>
+    <t>premature</t>
+  </si>
+  <si>
+    <t>早すぎる、時期尚早な</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>役割</t>
+  </si>
+  <si>
+    <t>enormous</t>
+  </si>
+  <si>
+    <t>巨大な</t>
+  </si>
+  <si>
+    <t>outreach</t>
+  </si>
+  <si>
+    <t>奉仕活動</t>
+  </si>
+  <si>
+    <t>adversely</t>
+  </si>
+  <si>
+    <t>不利に、逆に</t>
+  </si>
+  <si>
+    <t>monopolize</t>
+  </si>
+  <si>
+    <t>独占する</t>
+  </si>
+  <si>
+    <t>remaining</t>
+  </si>
+  <si>
+    <t>残り</t>
+  </si>
+  <si>
+    <t>fluctuate</t>
+  </si>
+  <si>
+    <t>変動する</t>
+  </si>
+  <si>
+    <t>remuneration</t>
+  </si>
+  <si>
+    <t>報酬</t>
+  </si>
+  <si>
+    <t>implore</t>
+  </si>
+  <si>
+    <t>懇願する</t>
+  </si>
+  <si>
+    <t>reminiscent</t>
+  </si>
+  <si>
+    <t>思い出させる</t>
+  </si>
+  <si>
+    <t>distinguished</t>
+  </si>
+  <si>
+    <t>著名な</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>獲得する</t>
+  </si>
+  <si>
+    <t>painstaking</t>
+  </si>
+  <si>
+    <t>骨の折れる</t>
+  </si>
+  <si>
+    <t>artisanship</t>
+  </si>
+  <si>
+    <t>職人技</t>
+  </si>
+  <si>
+    <t>inviting</t>
+  </si>
+  <si>
+    <t>魅力的な</t>
+  </si>
+  <si>
+    <t>rewarding</t>
+  </si>
+  <si>
+    <t>やりがいのある</t>
+  </si>
+  <si>
+    <t>efficacy</t>
+  </si>
+  <si>
+    <t>効能</t>
+  </si>
+  <si>
+    <t>obligatory</t>
+  </si>
+  <si>
+    <t>義務的</t>
+  </si>
+  <si>
+    <t>arduous</t>
+  </si>
+  <si>
+    <t>困難な</t>
+  </si>
+  <si>
+    <t>sparingly</t>
+  </si>
+  <si>
+    <t>控えめに</t>
+  </si>
+  <si>
+    <t>fascinate</t>
+  </si>
+  <si>
+    <t>魅了する</t>
+  </si>
+  <si>
+    <t>illustrate</t>
+  </si>
+  <si>
+    <t>説明する</t>
+  </si>
+  <si>
+    <t>reimburse</t>
+  </si>
+  <si>
+    <t>返済する</t>
+  </si>
+  <si>
+    <t>credibility</t>
+  </si>
+  <si>
+    <t>信頼性</t>
+  </si>
+  <si>
+    <t>petition</t>
+  </si>
+  <si>
+    <t>請願</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>不況</t>
+  </si>
+  <si>
+    <t>hectic</t>
+  </si>
+  <si>
+    <t>忙しい</t>
+  </si>
+  <si>
+    <t>paralegal</t>
+  </si>
+  <si>
+    <t>弁護士補佐</t>
+  </si>
+  <si>
+    <t>incumbent</t>
+  </si>
+  <si>
+    <t>現職の</t>
+  </si>
+  <si>
+    <t>rectify</t>
+  </si>
+  <si>
+    <t>修正する</t>
+  </si>
+  <si>
+    <t>downsize</t>
+  </si>
+  <si>
+    <t>削減する</t>
+  </si>
+  <si>
+    <t>presumably</t>
+  </si>
+  <si>
+    <t>おそらく</t>
+  </si>
+  <si>
+    <t>seasoned</t>
+  </si>
+  <si>
+    <t>経験豊富な</t>
+  </si>
+  <si>
+    <t>binding</t>
+  </si>
+  <si>
+    <t>拘束した</t>
+  </si>
+  <si>
+    <t>rapport</t>
+  </si>
+  <si>
+    <t>親密な関係</t>
+  </si>
+  <si>
+    <t>ambience</t>
+  </si>
+  <si>
+    <t>雰囲気</t>
+  </si>
+  <si>
+    <t>manipulate</t>
+  </si>
+  <si>
+    <t>操作する</t>
+  </si>
+  <si>
+    <t>malfunction</t>
+  </si>
+  <si>
+    <t>故障</t>
+  </si>
+  <si>
+    <t>prosperous</t>
+  </si>
+  <si>
+    <t>繁栄した</t>
+  </si>
+  <si>
+    <t>stagnant</t>
+  </si>
+  <si>
+    <t>停滞した</t>
+  </si>
+  <si>
+    <t>continue</t>
+  </si>
+  <si>
+    <t>再開する</t>
+  </si>
+  <si>
+    <t>shrink</t>
+  </si>
+  <si>
+    <t>縮む</t>
+  </si>
+  <si>
+    <t>unforgettable</t>
+  </si>
+  <si>
+    <t>忘れられない</t>
+  </si>
+  <si>
+    <t>deliberate</t>
+  </si>
+  <si>
+    <t>意図的に</t>
+  </si>
+  <si>
+    <t>render</t>
+  </si>
+  <si>
+    <t>～の状態にする</t>
+  </si>
+  <si>
+    <t>exhilarating</t>
+  </si>
+  <si>
+    <t>爽快</t>
+  </si>
+  <si>
+    <t>ubiquitous</t>
+  </si>
+  <si>
+    <t>どこにでもある</t>
+  </si>
+  <si>
+    <t>flourish</t>
+  </si>
+  <si>
+    <t>繁栄する</t>
+  </si>
+  <si>
+    <t>testimonial</t>
+  </si>
+  <si>
+    <t>推薦状、証明</t>
+  </si>
+  <si>
+    <t>harmonize</t>
+  </si>
+  <si>
+    <t>調和する</t>
+  </si>
+  <si>
+    <t>retrievable</t>
+  </si>
+  <si>
+    <t>検索できる、取り戻せる</t>
+  </si>
+  <si>
+    <t>worthwhile</t>
+  </si>
+  <si>
+    <t>価値がある</t>
+  </si>
+  <si>
+    <t>adept</t>
+  </si>
+  <si>
+    <t>熟練した</t>
+  </si>
+  <si>
+    <t>scrutinize</t>
+  </si>
+  <si>
+    <t>精査する</t>
+  </si>
+  <si>
+    <t>delectable</t>
+  </si>
+  <si>
+    <t>おいしい</t>
+  </si>
+  <si>
+    <t>plausible</t>
+  </si>
+  <si>
+    <t>もっともらしい</t>
   </si>
 </sst>
 </file>
@@ -552,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785E70E4-1280-40C8-97EC-5DE174853401}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -648,8 +1468,1041 @@
         <v>21</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A70" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A71" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A72" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A74" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A76" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A78" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A79" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A80" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A81" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A82" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A83" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A84" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A85" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A86" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A87" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A88" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A89" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A90" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A91" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A92" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A93" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A94" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A95" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A96" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A97" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A98" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A99" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A100" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A101" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A102" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A103" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A104" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A105" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A106" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A107" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A108" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A109" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A110" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A111" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A112" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A113" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A114" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A115" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A116" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A117" t="s">
+        <v>232</v>
+      </c>
+      <c r="B117" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A118" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A119" t="s">
+        <v>236</v>
+      </c>
+      <c r="B119" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A120" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A121" t="s">
+        <v>240</v>
+      </c>
+      <c r="B121" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A122" t="s">
+        <v>242</v>
+      </c>
+      <c r="B122" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A123" t="s">
+        <v>244</v>
+      </c>
+      <c r="B123" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A124" t="s">
+        <v>246</v>
+      </c>
+      <c r="B124" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A125" t="s">
+        <v>248</v>
+      </c>
+      <c r="B125" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A126" t="s">
+        <v>250</v>
+      </c>
+      <c r="B126" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A127" t="s">
+        <v>252</v>
+      </c>
+      <c r="B127" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A128" t="s">
+        <v>254</v>
+      </c>
+      <c r="B128" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A129" t="s">
+        <v>256</v>
+      </c>
+      <c r="B129" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A130" t="s">
+        <v>258</v>
+      </c>
+      <c r="B130" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A131" t="s">
+        <v>260</v>
+      </c>
+      <c r="B131" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A132" t="s">
+        <v>262</v>
+      </c>
+      <c r="B132" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A133" t="s">
+        <v>264</v>
+      </c>
+      <c r="B133" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A134" t="s">
+        <v>266</v>
+      </c>
+      <c r="B134" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A135" t="s">
+        <v>268</v>
+      </c>
+      <c r="B135" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A136" t="s">
+        <v>270</v>
+      </c>
+      <c r="B136" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A137" t="s">
+        <v>272</v>
+      </c>
+      <c r="B137" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A138" t="s">
+        <v>274</v>
+      </c>
+      <c r="B138" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A139" t="s">
+        <v>276</v>
+      </c>
+      <c r="B139" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A140" t="s">
+        <v>278</v>
+      </c>
+      <c r="B140" t="s">
+        <v>279</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>